--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlvbat-my.sharepoint.com/personal/daniel_pucher_htlvb_at/Documents/5AHWII/SWP/MensaBestellung/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{A5E8253F-70B4-4EE8-99B5-B7AB7E515125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EF24A36D-8257-47D1-A97A-C99581E79A5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -25,47 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
-  <si>
-    <t>Essen</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Primär</t>
-  </si>
-  <si>
-    <t>Beilage</t>
-  </si>
-  <si>
-    <t>Menü 1</t>
-  </si>
-  <si>
-    <t>Menü 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Vorname</t>
-  </si>
-  <si>
-    <t>Nachname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>User bestellt Essen</t>
-  </si>
-  <si>
-    <t>User_ID</t>
-  </si>
-  <si>
-    <t>essensbörse</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -97,6 +61,48 @@
   </si>
   <si>
     <t>desc</t>
+  </si>
+  <si>
+    <t>User order Menu</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>foodExchange</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Dish</t>
+  </si>
+  <si>
+    <t>dish_id</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>sideDish</t>
+  </si>
+  <si>
+    <t>mainDish1</t>
+  </si>
+  <si>
+    <t>mainDish2</t>
   </si>
 </sst>
 </file>
@@ -489,163 +495,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B0A42-807B-4D03-843A-C7C4AC5180CF}">
-  <dimension ref="C2:T7"/>
+  <dimension ref="A2:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="S2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>1</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>20</v>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>13</v>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>13</v>
+      <c r="R7" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -922,16 +955,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
     <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8894C54D-D06E-4537-A5F1-6C705EE6A305}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B0A42-807B-4D03-843A-C7C4AC5180CF}">
   <dimension ref="A2:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +608,9 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
@@ -637,6 +640,9 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
@@ -657,6 +663,9 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
@@ -688,6 +697,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B3F2DBAE4AB154BA9BC4F40229DE4C2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="298a960356b0bb5c4bf5db6d01e10e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2675265-d0c3-4a9e-a2cd-bad11ce77d07" xmlns:ns4="84c3105f-dc73-429a-a1bf-d7709250548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf9d9dd511bd04a96fbcc7f654d3f3cb" ns3:_="" ns4:_="">
     <xsd:import namespace="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
@@ -910,22 +934,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405D245C-15FD-4A2B-A932-E9C1A4B734AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -942,29 +976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8894C54D-D06E-4537-A5F1-6C705EE6A305}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DE24947F-2F8C-430D-AB42-C3C2CF8CC27F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>User</t>
   </si>
@@ -93,9 +93,6 @@
     <t>dish_id</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>sideDish</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>mainDish2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B0A42-807B-4D03-843A-C7C4AC5180CF}">
   <dimension ref="A2:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -612,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>1</v>
@@ -644,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>1</v>
@@ -667,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>1</v>
@@ -680,6 +683,12 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
       <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
@@ -697,21 +706,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B3F2DBAE4AB154BA9BC4F40229DE4C2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="298a960356b0bb5c4bf5db6d01e10e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2675265-d0c3-4a9e-a2cd-bad11ce77d07" xmlns:ns4="84c3105f-dc73-429a-a1bf-d7709250548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf9d9dd511bd04a96fbcc7f654d3f3cb" ns3:_="" ns4:_="">
     <xsd:import namespace="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
@@ -934,32 +928,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405D245C-15FD-4A2B-A932-E9C1A4B734AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -976,4 +960,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DE24947F-2F8C-430D-AB42-C3C2CF8CC27F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{930A097C-9974-460B-B67F-C84FC2E01B5B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>isActive</t>
+    <t>mensaOpen</t>
   </si>
 </sst>
 </file>
@@ -501,11 +501,12 @@
   <dimension ref="A2:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
@@ -706,6 +707,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B3F2DBAE4AB154BA9BC4F40229DE4C2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="298a960356b0bb5c4bf5db6d01e10e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2675265-d0c3-4a9e-a2cd-bad11ce77d07" xmlns:ns4="84c3105f-dc73-429a-a1bf-d7709250548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf9d9dd511bd04a96fbcc7f654d3f3cb" ns3:_="" ns4:_="">
     <xsd:import namespace="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
@@ -928,22 +944,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
+    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405D245C-15FD-4A2B-A932-E9C1A4B734AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -960,29 +986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="6_{30733CB3-82C6-487A-BAEC-0BCFD25EFE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{930A097C-9974-460B-B67F-C84FC2E01B5B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="14_{B7C0E6C4-A7F1-42A6-B51D-1974FBDCD2F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05606128-0961-4750-AF4B-34E990319309}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>User</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>mensaOpen</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>foodExchangeOpen</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -498,18 +510,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B0A42-807B-4D03-843A-C7C4AC5180CF}">
-  <dimension ref="A2:W7"/>
+  <dimension ref="A2:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" customWidth="1"/>
@@ -685,10 +698,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>7</v>
@@ -698,6 +711,22 @@
       </c>
       <c r="R7" s="6" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -947,15 +976,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/DB/DB-Tabellen.xlsx
+++ b/DB/DB-Tabellen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.pucher\OneDrive - HTL Vöcklabruck\5AHWII\SWP\MensaBestellung\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlvbat-my.sharepoint.com/personal/daniel_pucher_htlvb_at/Documents/5AHWII/SWP/MensaBestellung/DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="14_{B7C0E6C4-A7F1-42A6-B51D-1974FBDCD2F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05606128-0961-4750-AF4B-34E990319309}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0C3EB2F5-9BFF-4C3C-BD55-C30184808FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69F0ACEA-CC57-4D04-AAC5-5D1233FB1C87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>User</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Menu</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>foodExchange</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>Dish</t>
-  </si>
-  <si>
     <t>dish_id</t>
   </si>
   <si>
@@ -108,16 +102,16 @@
     <t>mensaOpen</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>foodExchangeOpen</t>
-  </si>
-  <si>
-    <t>datetime</t>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>MainDish</t>
+  </si>
+  <si>
+    <t>SideDish</t>
+  </si>
+  <si>
+    <t>menuDate</t>
   </si>
 </sst>
 </file>
@@ -510,223 +504,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B0A42-807B-4D03-843A-C7C4AC5180CF}">
-  <dimension ref="A2:W9"/>
+  <dimension ref="C2:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="E12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -736,21 +750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B3F2DBAE4AB154BA9BC4F40229DE4C2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="298a960356b0bb5c4bf5db6d01e10e10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a2675265-d0c3-4a9e-a2cd-bad11ce77d07" xmlns:ns4="84c3105f-dc73-429a-a1bf-d7709250548d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf9d9dd511bd04a96fbcc7f654d3f3cb" ns3:_="" ns4:_="">
     <xsd:import namespace="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
@@ -973,32 +972,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{405D245C-15FD-4A2B-A932-E9C1A4B734AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1015,4 +1004,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC2B00E-AFC6-4FD4-9175-8D30CFE0307C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7B6EB97-4373-4077-ADAA-CB59ACE759CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="84c3105f-dc73-429a-a1bf-d7709250548d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a2675265-d0c3-4a9e-a2cd-bad11ce77d07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>